--- a/Excel/SynthesisConfig.xlsx
+++ b/Excel/SynthesisConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="57">
   <si>
     <t>Id</t>
   </si>
@@ -54,6 +54,138 @@
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t>斗笠</t>
+  </si>
+  <si>
+    <t>斗笠·一阶</t>
+  </si>
+  <si>
+    <t>斗笠 · 二阶</t>
+  </si>
+  <si>
+    <t>斗笠 · 三阶</t>
+  </si>
+  <si>
+    <t>斗笠 · 四阶</t>
+  </si>
+  <si>
+    <t>斗笠 · 五阶</t>
+  </si>
+  <si>
+    <t>斗笠 · 六阶</t>
+  </si>
+  <si>
+    <t>斗笠 · 七阶</t>
+  </si>
+  <si>
+    <t>斗笠 · 八阶</t>
+  </si>
+  <si>
+    <t>斗笠 · 九阶</t>
+  </si>
+  <si>
+    <t>斗笠 · 十阶</t>
+  </si>
+  <si>
+    <t>护盾</t>
+  </si>
+  <si>
+    <t>护盾 · 一阶</t>
+  </si>
+  <si>
+    <t>护盾 · 二阶</t>
+  </si>
+  <si>
+    <t>护盾 · 三阶</t>
+  </si>
+  <si>
+    <t>护盾 · 四阶</t>
+  </si>
+  <si>
+    <t>护盾 · 五阶</t>
+  </si>
+  <si>
+    <t>护盾 · 六阶</t>
+  </si>
+  <si>
+    <t>护盾 · 七阶</t>
+  </si>
+  <si>
+    <t>护盾 · 八阶</t>
+  </si>
+  <si>
+    <t>护盾 · 九阶</t>
+  </si>
+  <si>
+    <t>护盾 · 十阶</t>
+  </si>
+  <si>
+    <t>神符</t>
+  </si>
+  <si>
+    <t>神符 · 一阶</t>
+  </si>
+  <si>
+    <t>神符 · 二阶</t>
+  </si>
+  <si>
+    <t>神符 · 三阶</t>
+  </si>
+  <si>
+    <t>神符 · 四阶</t>
+  </si>
+  <si>
+    <t>神符 · 五阶</t>
+  </si>
+  <si>
+    <t>神符 · 六阶</t>
+  </si>
+  <si>
+    <t>神符 · 七阶</t>
+  </si>
+  <si>
+    <t>神符 · 八阶</t>
+  </si>
+  <si>
+    <t>神符 · 九阶</t>
+  </si>
+  <si>
+    <t>神符 · 十阶</t>
+  </si>
+  <si>
+    <t>魔石</t>
+  </si>
+  <si>
+    <t>魔石 · 一阶</t>
+  </si>
+  <si>
+    <t>魔石 · 二阶</t>
+  </si>
+  <si>
+    <t>魔石 · 三阶</t>
+  </si>
+  <si>
+    <t>魔石 · 四阶</t>
+  </si>
+  <si>
+    <t>魔石 · 五阶</t>
+  </si>
+  <si>
+    <t>魔石 · 六阶</t>
+  </si>
+  <si>
+    <t>魔石 · 七阶</t>
+  </si>
+  <si>
+    <t>魔石 · 八阶</t>
+  </si>
+  <si>
+    <t>魔石 · 九阶</t>
+  </si>
+  <si>
+    <t>魔石 · 十阶</t>
   </si>
 </sst>
 </file>
@@ -1171,13 +1303,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L5"/>
+  <dimension ref="C1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
@@ -1288,6 +1420,1158 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="3:12">
+      <c r="C6">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>101</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>102</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>102</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>103</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>103</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>104</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>104</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>105</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>105</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>106</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>106</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>107</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>107</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>108</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>108</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>109</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>109</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>110</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15">
+        <v>201</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>201</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15">
+        <v>202</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16">
+        <v>202</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>202</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>203</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17">
+        <v>203</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>203</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>204</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18">
+        <v>204</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <v>204</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>205</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19">
+        <v>205</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>205</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>206</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20">
+        <v>206</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>206</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20">
+        <v>207</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21">
+        <v>207</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <v>207</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21">
+        <v>208</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22">
+        <v>208</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <v>208</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22">
+        <v>209</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23">
+        <v>209</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23">
+        <v>209</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23">
+        <v>210</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24">
+        <v>301</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24">
+        <v>301</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24">
+        <v>302</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25">
+        <v>302</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>302</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25">
+        <v>303</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26">
+        <v>303</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26">
+        <v>303</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26">
+        <v>304</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27">
+        <v>304</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27">
+        <v>304</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27">
+        <v>305</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28">
+        <v>305</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>305</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28">
+        <v>306</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29">
+        <v>306</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29">
+        <v>306</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29">
+        <v>307</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30">
+        <v>307</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30">
+        <v>307</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30">
+        <v>308</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31">
+        <v>308</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31">
+        <v>308</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31">
+        <v>309</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32">
+        <v>309</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32">
+        <v>309</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32">
+        <v>310</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33">
+        <v>401</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33">
+        <v>401</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33">
+        <v>402</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34">
+        <v>402</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34">
+        <v>402</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34">
+        <v>403</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35">
+        <v>403</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35">
+        <v>403</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35">
+        <v>404</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36">
+        <v>404</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <v>404</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36">
+        <v>405</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37">
+        <v>405</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37">
+        <v>405</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37">
+        <v>406</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38">
+        <v>406</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38">
+        <v>406</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38">
+        <v>407</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39">
+        <v>407</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39">
+        <v>407</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39">
+        <v>408</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40">
+        <v>408</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40">
+        <v>408</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40">
+        <v>409</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41">
+        <v>409</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41">
+        <v>409</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41">
+        <v>410</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
